--- a/test/import/xlsx/test_file.xlsx
+++ b/test/import/xlsx/test_file.xlsx
@@ -86,8 +86,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -163,7 +164,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -172,27 +173,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -216,15 +221,15 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="9.13"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -245,87 +250,90 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="7"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
